--- a/public/old.xlsx
+++ b/public/old.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C7E77D-E986-4840-9B68-77BF34C8855A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CED07D-808C-4BAD-BA0A-7D71EFEE9DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4290" windowWidth="8520" windowHeight="5770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR OLD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +42,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,16 +71,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,67 +427,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:I36"/>
+  <dimension ref="B6:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" customWidth="1"/>
     <col min="7" max="7" width="9.453125" customWidth="1"/>
     <col min="8" max="8" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+    <row r="9" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H36:I36"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>